--- a/data/derived/arc-tme-misc/arc-tme-misc.xlsx
+++ b/data/derived/arc-tme-misc/arc-tme-misc.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="170">
   <si>
     <t>year observed</t>
   </si>
@@ -508,13 +508,37 @@
     <t>SampleName</t>
   </si>
   <si>
-    <t>d14C_t1</t>
-  </si>
-  <si>
     <t>YearSampled</t>
   </si>
   <si>
-    <t>FM_t2</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>storage duration</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -630,11 +654,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -691,7 +723,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="26">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -700,6 +732,10 @@
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -707,6 +743,10 @@
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_Workbook2" xfId="3"/>
@@ -849,152 +889,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="D3">
-            <v>7.6</v>
-          </cell>
-          <cell r="E3">
-            <v>9.4</v>
-          </cell>
-          <cell r="F3">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>53.1</v>
-          </cell>
-          <cell r="E5">
-            <v>27</v>
-          </cell>
-          <cell r="F5">
-            <v>0.14000000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.14000000000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>0.28000000000000003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>345.3</v>
-          </cell>
-          <cell r="E8">
-            <v>150.1</v>
-          </cell>
-          <cell r="F8">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>153.69999999999999</v>
-          </cell>
-          <cell r="E9">
-            <v>67.55</v>
-          </cell>
-          <cell r="F9">
-            <v>0.4</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>276.39999999999998</v>
-          </cell>
-          <cell r="E10">
-            <v>123.3</v>
-          </cell>
-          <cell r="F10">
-            <v>0.60000000000000009</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>35</v>
-          </cell>
-          <cell r="E11">
-            <v>23.5</v>
-          </cell>
-          <cell r="F11">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>484.8</v>
-          </cell>
-          <cell r="E12">
-            <v>181</v>
-          </cell>
-          <cell r="F12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>1.6</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>635.79999999999995</v>
-          </cell>
-          <cell r="E14">
-            <v>257.8</v>
-          </cell>
-          <cell r="F14">
-            <v>1.5089999999999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>1435</v>
-          </cell>
-          <cell r="E15">
-            <v>620.6</v>
-          </cell>
-          <cell r="F15">
-            <v>3.0179999999999998</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>1.7353499999999997</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>4.5269999999999992</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>4.5269999999999992</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>6.0359999999999996</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>6.0359999999999996</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
@@ -7214,7 +7109,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8014,7 +7909,7 @@
         <v>40172</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F32" si="0">YEAR(E3)</f>
+        <f t="shared" ref="F3:F31" si="0">YEAR(E3)</f>
         <v>2009</v>
       </c>
       <c r="G3">
@@ -8789,7 +8684,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="25">
-        <f t="shared" ref="E18:E32" si="11">E3</f>
+        <f t="shared" ref="E18:E31" si="11">E3</f>
         <v>40172</v>
       </c>
       <c r="F18">
@@ -8797,11 +8692,11 @@
         <v>2009</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G32" si="12">MONTH(E18)</f>
+        <f t="shared" ref="G18:G31" si="12">MONTH(E18)</f>
         <v>12</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H32" si="13">DAY(E18)+E18-ROUNDDOWN(E18,0)</f>
+        <f t="shared" ref="H18:H31" si="13">DAY(E18)+E18-ROUNDDOWN(E18,0)</f>
         <v>25</v>
       </c>
       <c r="I18" s="11">
@@ -9520,19 +9415,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="2" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -9540,337 +9435,1170 @@
         <v>160</v>
       </c>
       <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
+        <f>A2</f>
+        <v>NWN1 OiOe</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(LEFT(B2,3)="NWN","Harvard",IF(LEFT(B2,3)="How","Howland",IF(LEFT(B2,3)="TVA","Tennessee Valley","Walker Branch")))</f>
+        <v>Harvard</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2">
         <f>VLOOKUP(A2,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C2">
+      <c r="H2">
         <f>VLOOKUP($A2,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
         <v>123</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B20" si="0">A3</f>
+        <v>NWN-2 OiOe</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C39" si="1">IF(LEFT(B3,3)="NWN","Harvard",IF(LEFT(B3,3)="How","Howland",IF(LEFT(B3,3)="TVA","Tennessee Valley","Walker Branch")))</f>
+        <v>Harvard</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(A3,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H3">
+        <f>VLOOKUP($A3,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>How OiOe #6</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>Howland</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(A4,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP($A4,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>How OeOa #17</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>Howland</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(A5,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP($A5,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>NWN-1 Ap (bag)</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(A6,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP($A6,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>NWN-1 Ap #27</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(A7,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP($A7,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>NWN-2 Ap #34</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(A8,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP($A8,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>NWN-1 Ap #44</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(A9,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP($A9,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA 4E</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(A10,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP($A10,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>342.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA 6E</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(A11,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP($A11,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>329.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA 8E</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(A12,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP($A12,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>338.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA2B-C_iT2</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(A13,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP($A13,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>310.34817661435966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>TVA3-C_iT1</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(A14,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP($A14,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>318.36546437050316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>WB4B-C_iT2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(A15,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP($A15,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>153.7793032684167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>WB5-C_iT2</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(A16,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP($A16,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>185.98022281336867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>WB8-C_iT2</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(A17,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>2004</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP($A17,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>152.91407930804525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>NWN-1 Bw1 (Bag)</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(A18,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H18">
+        <f>VLOOKUP($A18,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>NWN Bw1 #37</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(A19,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H19">
+        <f>VLOOKUP($A19,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>How tower Bh/s #5</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>Howland</v>
+      </c>
+      <c r="D20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(A20,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="H20">
+        <f>VLOOKUP($A20,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="str">
+        <f>A21</f>
+        <v>NWN1 OiOe</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(A21,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+        <v>1999</v>
+      </c>
+      <c r="I21">
         <f>VLOOKUP($A2,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.163309924394998</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <f>VLOOKUP(A3,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B22" t="str">
+        <f t="shared" ref="B22:B39" si="2">A22</f>
+        <v>NWN-2 OiOe</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(A22,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C3">
-        <f>VLOOKUP($A3,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>117</v>
-      </c>
-      <c r="D3">
+      <c r="I22">
         <f>VLOOKUP($A3,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.166059410929934</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <f>VLOOKUP(A4,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B23" t="str">
+        <f t="shared" si="2"/>
+        <v>How OiOe #6</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>Howland</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(A23,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C4">
-        <f>VLOOKUP($A4,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>153</v>
-      </c>
-      <c r="D4">
+      <c r="I23">
         <f>VLOOKUP($A4,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.2322973230980141</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <f>VLOOKUP(A5,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B24" t="str">
+        <f t="shared" si="2"/>
+        <v>How OeOa #17</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>Howland</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(A24,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C5">
-        <f>VLOOKUP($A5,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>72</v>
-      </c>
-      <c r="D5">
+      <c r="I24">
         <f>VLOOKUP($A5,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.2544214351331739</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <f>VLOOKUP(A6,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B25" t="str">
+        <f t="shared" si="2"/>
+        <v>NWN-1 Ap (bag)</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(A25,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C6">
-        <f>VLOOKUP($A6,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>120.5</v>
-      </c>
-      <c r="D6">
+      <c r="I25">
         <f>VLOOKUP($A6,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.0755495586926322</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <f>VLOOKUP(A7,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B26" t="str">
+        <f t="shared" si="2"/>
+        <v>NWN-1 Ap #27</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(A26,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C7">
-        <f>VLOOKUP($A7,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>120.5</v>
-      </c>
-      <c r="D7">
+      <c r="I26">
         <f>VLOOKUP($A7,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.114626744420828</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <f>VLOOKUP(A8,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B27" t="str">
+        <f t="shared" si="2"/>
+        <v>NWN-2 Ap #34</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP(A27,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C8">
-        <f>VLOOKUP($A8,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>125</v>
-      </c>
-      <c r="D8">
+      <c r="I27">
         <f>VLOOKUP($A8,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.1580972052037479</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <f>VLOOKUP(A9,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B28" t="str">
+        <f t="shared" si="2"/>
+        <v>NWN-1 Ap #44</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP(A28,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C9">
-        <f>VLOOKUP($A9,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>116</v>
-      </c>
-      <c r="D9">
+      <c r="I28">
         <f>VLOOKUP($A9,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.1051043595015999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <f>VLOOKUP(A10,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B29" t="str">
+        <f t="shared" si="2"/>
+        <v>TVA 4E</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(A29,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>2004</v>
       </c>
-      <c r="C10">
-        <f>VLOOKUP($A10,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>342.6</v>
-      </c>
-      <c r="D10">
+      <c r="I29">
         <f>VLOOKUP($A10,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.2844010752638231</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <f>VLOOKUP(A11,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B30" t="str">
+        <f t="shared" si="2"/>
+        <v>TVA 6E</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(A30,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>2004</v>
       </c>
-      <c r="C11">
-        <f>VLOOKUP($A11,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>329.7</v>
-      </c>
-      <c r="D11">
+      <c r="I30">
         <f>VLOOKUP($A11,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.3005433220847651</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <f>VLOOKUP(A12,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B31" t="str">
+        <f t="shared" si="2"/>
+        <v>TVA 8E</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31">
+        <f>VLOOKUP(A31,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>2004</v>
       </c>
-      <c r="C12">
-        <f>VLOOKUP($A12,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>338.3</v>
-      </c>
-      <c r="D12">
+      <c r="I31">
         <f>VLOOKUP($A12,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.3067216530536421</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <f>VLOOKUP(A13,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B32" t="str">
+        <f t="shared" si="2"/>
+        <v>TVA2B-C_iT2</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32">
+        <f>VLOOKUP(A32,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>2004</v>
       </c>
-      <c r="C13">
-        <f>VLOOKUP($A13,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>310.34817661435966</v>
-      </c>
-      <c r="D13">
+      <c r="I32">
         <f>VLOOKUP($A13,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.255256051476243</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <f>VLOOKUP(A14,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B33" t="str">
+        <f t="shared" si="2"/>
+        <v>TVA3-C_iT1</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee Valley</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33">
+        <f>VLOOKUP(A33,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>2004</v>
       </c>
-      <c r="C14">
-        <f>VLOOKUP($A14,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>318.36546437050316</v>
-      </c>
-      <c r="D14">
+      <c r="I33">
         <f>VLOOKUP($A14,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.2850821491467548</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
-        <f>VLOOKUP(A15,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B34" t="str">
+        <f t="shared" si="2"/>
+        <v>WB4B-C_iT2</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34">
+        <f>VLOOKUP(A34,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>2004</v>
       </c>
-      <c r="C15">
-        <f>VLOOKUP($A15,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>153.7793032684167</v>
-      </c>
-      <c r="D15">
+      <c r="I34">
         <f>VLOOKUP($A15,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.1592041891015252</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
-        <f>VLOOKUP(A16,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B35" t="str">
+        <f t="shared" si="2"/>
+        <v>WB5-C_iT2</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35">
+        <f>VLOOKUP(A35,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>2004</v>
       </c>
-      <c r="C16">
-        <f>VLOOKUP($A16,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>185.98022281336867</v>
-      </c>
-      <c r="D16">
+      <c r="I35">
         <f>VLOOKUP($A16,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.1918125257082315</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <f>VLOOKUP(A17,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B36" t="str">
+        <f t="shared" si="2"/>
+        <v>WB8-C_iT2</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>Walker Branch</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36">
+        <f>VLOOKUP(A36,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>2004</v>
       </c>
-      <c r="C17">
-        <f>VLOOKUP($A17,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>152.91407930804525</v>
-      </c>
-      <c r="D17">
+      <c r="I36">
         <f>VLOOKUP($A17,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.1347543985540955</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
-        <f>VLOOKUP(A18,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B37" t="str">
+        <f t="shared" si="2"/>
+        <v>NWN-1 Bw1 (Bag)</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37">
+        <f>VLOOKUP(A37,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C18">
-        <f>VLOOKUP($A18,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>76</v>
-      </c>
-      <c r="D18">
+      <c r="I37">
         <f>VLOOKUP($A18,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.1593444182417521</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
-        <f>VLOOKUP(A19,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B38" t="str">
+        <f t="shared" si="2"/>
+        <v>NWN Bw1 #37</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>Harvard</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38">
+        <f>VLOOKUP(A38,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C19">
-        <f>VLOOKUP($A19,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>76</v>
-      </c>
-      <c r="D19">
+      <c r="I38">
         <f>VLOOKUP($A19,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>0.99879952107284931</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
-        <f>VLOOKUP(A20,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
+      <c r="B39" t="str">
+        <f t="shared" si="2"/>
+        <v>How tower Bh/s #5</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>Howland</v>
+      </c>
+      <c r="D39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39">
+        <f>VLOOKUP(A39,Sheet1_copy!$B$2:$H$24,2,FALSE)</f>
         <v>1999</v>
       </c>
-      <c r="C20">
-        <f>VLOOKUP($A20,Sheet1_copy!$B$2:$H$24,4,FALSE)</f>
-        <v>117</v>
-      </c>
-      <c r="D20">
+      <c r="I39">
         <f>VLOOKUP($A20,Sheet1_copy!$B$2:$H$24,7,FALSE)</f>
         <v>1.0864743891516737</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
